--- a/biology/Botanique/Datronia_mollis/Datronia_mollis.xlsx
+++ b/biology/Botanique/Datronia_mollis/Datronia_mollis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Datronia mollis est un champignon de la famille des Polyporacées, assez courant en Europe, poussant sur de nombreux feuillus.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antrodia mollis (Sommerf. : Fr.) Karst.
 Daedalea mollis Sommerf. : Fr.
@@ -543,10 +557,12 @@
           <t>Description du basidiome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapeau résupiné-confluent, 5 à 15 cm de diamètre ou étalé-réfléchi de 2 à 7 cm, 1 à 2 cm de projection, sur 2-6 mm d'épaisseur. feutré à zoné, gris brun à noisette, noirâtre en arrière. Tubes 1 à 5 mm de long, gris brun pâle, étirés en palettes. Pores alvéolés, circulaires, de 0,5 à 1 mm de diamètre, dédaléens, concolores, à pruine blanchâtre. Sporée blanche. Consistance flasque sur le frais[2]. 
-La présence d'une ligne noire sous le tomentum du chapeau est un caractère commun à différentes espèces de genres séparés. Hyménium semblable à celui de Podofomes trogii, à cystidioles nombreuses, caractère partagé avec les genres Bjerkandera, Ischnoderma, Podofomes et Cerrena[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapeau résupiné-confluent, 5 à 15 cm de diamètre ou étalé-réfléchi de 2 à 7 cm, 1 à 2 cm de projection, sur 2-6 mm d'épaisseur. feutré à zoné, gris brun à noisette, noirâtre en arrière. Tubes 1 à 5 mm de long, gris brun pâle, étirés en palettes. Pores alvéolés, circulaires, de 0,5 à 1 mm de diamètre, dédaléens, concolores, à pruine blanchâtre. Sporée blanche. Consistance flasque sur le frais. 
+La présence d'une ligne noire sous le tomentum du chapeau est un caractère commun à différentes espèces de genres séparés. Hyménium semblable à celui de Podofomes trogii, à cystidioles nombreuses, caractère partagé avec les genres Bjerkandera, Ischnoderma, Podofomes et Cerrena.
 Spores cylindriques-elliptiques, lisses, guttulées ou granuleuses, hyalines, de 8 - 11 x 3 - 4 μm. Basides tétrasporiques, clavées, bouclées. Cystidioles +/- fusiformes.
 Structure trimitique : Hyphes génératrices x 1,5 – 3,5 µm, hyalines, à parois minces, bouclées. Hyphes squelettiques à parois épaisses, brunâtres ou brun jaunâtre, x 2 – 6 μm. Hyphes conjonctives à paroi épaisse, non septées, très ramifiées, de 1,5 à 3 μ de diamètre.
 Contexte bipartite. Trame semblable à la partie inférieure du contexte, hyphes génératrices bouclées, à paroi mince et hyaline.
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Vient de mai à novembre, sur les souches, troncs morts, branches tombées de hêtre, bouleau, alisier, noisetier, aune, chêne, tremble, exceptionnellement sur conifères.
 </t>
@@ -609,9 +627,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Europe, Amérique du Nord et Asie (Inde). Signalé en Nouvelle-Galles du Sud (Australie) par Cooke[4], et dans la région de Melbourne.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Europe, Amérique du Nord et Asie (Inde). Signalé en Nouvelle-Galles du Sud (Australie) par Cooke, et dans la région de Melbourne.
 </t>
         </is>
       </c>
